--- a/field_lab_data/ingrowth_cores/ingrowthcores_BGbiomass.xlsx
+++ b/field_lab_data/ingrowth_cores/ingrowthcores_BGbiomass.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7129F482-C9C1-460F-A919-2DBF7A1987F0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E3AE28F-C0F1-4F0D-97A4-1ACBB8A3A1E6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -534,8 +534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19498CE0-BE01-461B-AE00-6C38C83A986C}">
   <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45:B50"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -649,6 +649,9 @@
       <c r="F5">
         <v>0.99</v>
       </c>
+      <c r="G5">
+        <v>1.516</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -669,6 +672,9 @@
       <c r="F6">
         <v>1.05</v>
       </c>
+      <c r="G6">
+        <v>3.0449999999999999</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -689,6 +695,9 @@
       <c r="F7">
         <v>1.41</v>
       </c>
+      <c r="G7">
+        <v>1.5620000000000001</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -769,6 +778,9 @@
       <c r="F11">
         <v>1.04</v>
       </c>
+      <c r="G11">
+        <v>2.5190000000000001</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -789,6 +801,9 @@
       <c r="F12">
         <v>1.22</v>
       </c>
+      <c r="G12">
+        <v>1.016</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -808,6 +823,9 @@
       </c>
       <c r="F13">
         <v>1.55</v>
+      </c>
+      <c r="G13">
+        <v>1.9550000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -829,6 +847,9 @@
       <c r="F14">
         <v>1.1200000000000001</v>
       </c>
+      <c r="G14">
+        <v>1.204</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -849,6 +870,9 @@
       <c r="F15">
         <v>1.49</v>
       </c>
+      <c r="G15">
+        <v>1.101</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -869,8 +893,11 @@
       <c r="F16">
         <v>1.24</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16">
+        <v>1.333</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>3</v>
       </c>
@@ -890,7 +917,7 @@
         <v>0.91300000000000003</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>3</v>
       </c>
@@ -910,7 +937,7 @@
         <v>0.96599999999999997</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>3</v>
       </c>
@@ -930,7 +957,7 @@
         <v>1.6379999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>4</v>
       </c>
@@ -950,7 +977,7 @@
         <v>1.4610000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>4</v>
       </c>
@@ -970,7 +997,7 @@
         <v>1.4119999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>4</v>
       </c>
@@ -990,7 +1017,7 @@
         <v>1.018</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>4</v>
       </c>
@@ -1009,8 +1036,11 @@
       <c r="F23">
         <v>1.17</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G23">
+        <v>1.2010000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>4</v>
       </c>
@@ -1029,8 +1059,11 @@
       <c r="F24">
         <v>2.2400000000000002</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G24">
+        <v>1.5169999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>4</v>
       </c>
@@ -1049,8 +1082,11 @@
       <c r="F25">
         <v>0.91</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G25">
+        <v>1.377</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>5</v>
       </c>
@@ -1070,7 +1106,7 @@
         <v>0.59400000000000008</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>5</v>
       </c>
@@ -1090,7 +1126,7 @@
         <v>0.80399999999999994</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>5</v>
       </c>
@@ -1110,7 +1146,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>5</v>
       </c>
@@ -1129,8 +1165,11 @@
       <c r="F29">
         <v>1.1599999999999999</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G29">
+        <v>0.69499999999999995</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>5</v>
       </c>
@@ -1149,8 +1188,11 @@
       <c r="F30">
         <v>0.89</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G30">
+        <v>0.86299999999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>5</v>
       </c>
@@ -1169,8 +1211,11 @@
       <c r="F31">
         <v>0.76</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G31">
+        <v>0.93100000000000005</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>6</v>
       </c>
@@ -1189,8 +1234,11 @@
       <c r="F32">
         <v>1.1399999999999999</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G32">
+        <v>1.3049999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>6</v>
       </c>
@@ -1209,8 +1257,11 @@
       <c r="F33">
         <v>1.29</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G33">
+        <v>0.505</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>6</v>
       </c>
@@ -1229,8 +1280,11 @@
       <c r="F34">
         <v>1.47</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G34">
+        <v>0.88800000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>6</v>
       </c>
@@ -1250,7 +1304,7 @@
         <v>1.0029999999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>6</v>
       </c>
@@ -1270,7 +1324,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>6</v>
       </c>
@@ -1290,7 +1344,7 @@
         <v>1.5980000000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>7</v>
       </c>
@@ -1309,8 +1363,11 @@
       <c r="F38">
         <v>1.62</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G38">
+        <v>1.2649999999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>7</v>
       </c>
@@ -1329,8 +1386,11 @@
       <c r="F39">
         <v>0.53</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G39">
+        <v>1.0169999999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>7</v>
       </c>
@@ -1349,8 +1409,11 @@
       <c r="F40">
         <v>0.84</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G40">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>7</v>
       </c>
@@ -1370,7 +1433,7 @@
         <v>1.47</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>7</v>
       </c>
@@ -1390,7 +1453,7 @@
         <v>0.93500000000000005</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>7</v>
       </c>
@@ -1410,7 +1473,7 @@
         <v>0.70599999999999996</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>7</v>
       </c>
@@ -1430,7 +1493,7 @@
         <v>1.137</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>8</v>
       </c>
@@ -1450,7 +1513,7 @@
         <v>1.2609999999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>8</v>
       </c>
@@ -1470,7 +1533,7 @@
         <v>0.90200000000000002</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>8</v>
       </c>
@@ -1490,7 +1553,7 @@
         <v>0.621</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>8</v>
       </c>
@@ -1509,8 +1572,11 @@
       <c r="F48">
         <v>0.53</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G48">
+        <v>0.86799999999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>8</v>
       </c>
@@ -1529,8 +1595,11 @@
       <c r="F49">
         <v>1.04</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G49">
+        <v>0.95299999999999996</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>8</v>
       </c>
@@ -1548,6 +1617,9 @@
       </c>
       <c r="F50">
         <v>0.84</v>
+      </c>
+      <c r="G50">
+        <v>1.7509999999999999</v>
       </c>
     </row>
   </sheetData>
